--- a/etc/databases/buses.xlsx
+++ b/etc/databases/buses.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="16">
   <si>
     <t>A Route Shuttle</t>
   </si>
@@ -52,6 +52,21 @@
   </si>
   <si>
     <t>busid</t>
+  </si>
+  <si>
+    <t>61B</t>
+  </si>
+  <si>
+    <t>61C</t>
+  </si>
+  <si>
+    <t>McKeesport</t>
+  </si>
+  <si>
+    <t>61D</t>
+  </si>
+  <si>
+    <t>Waterfront</t>
   </si>
 </sst>
 </file>
@@ -97,7 +112,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -111,6 +126,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -443,22 +461,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="10.83203125" style="1"/>
+    <col min="1" max="1" width="10.83203125" style="6"/>
     <col min="2" max="2" width="25" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.83203125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="16.5" style="1" customWidth="1"/>
     <col min="4" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="6" t="s">
         <v>10</v>
       </c>
       <c r="B1" s="1" t="s">
@@ -536,8 +554,70 @@
       <c r="C8" s="3"/>
     </row>
     <row r="9" spans="1:3">
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
+      <c r="A9" s="6">
+        <v>11</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="6">
+        <v>12</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="6">
+        <v>13</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="6">
+        <v>14</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="6">
+        <v>15</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="6">
+        <v>16</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>15</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
